--- a/field_lab_data/ingrowth_cores.xlsx
+++ b/field_lab_data/ingrowth_cores.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69191980-6854-492B-B734-B1B64A082931}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A8A62B-6431-484F-A6B6-7CED5980FB28}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="108">
   <si>
     <t>cut+manure</t>
   </si>
@@ -314,12 +314,6 @@
     <t>manure_1</t>
   </si>
   <si>
-    <t>install_date</t>
-  </si>
-  <si>
-    <t>harvest_date</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -354,6 +348,9 @@
   </si>
   <si>
     <t>manure_2</t>
+  </si>
+  <si>
+    <t>rhizomes</t>
   </si>
 </sst>
 </file>
@@ -675,20 +672,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19498CE0-BE01-461B-AE00-6C38C83A986C}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -696,16 +691,16 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" t="s">
-        <v>96</v>
-      </c>
       <c r="E1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G1" t="s">
         <v>99</v>
@@ -719,995 +714,838 @@
       <c r="J1" t="s">
         <v>102</v>
       </c>
-      <c r="K1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
-        <v>43530</v>
-      </c>
-      <c r="D2" s="2">
-        <v>43584</v>
-      </c>
-      <c r="E2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2">
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2">
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
-        <v>43530</v>
-      </c>
-      <c r="D3" s="2">
-        <v>43584</v>
-      </c>
-      <c r="E3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3">
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3">
         <v>0.53700000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
-        <v>43530</v>
-      </c>
-      <c r="D4" s="2">
-        <v>43584</v>
-      </c>
-      <c r="E4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4">
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4">
         <v>0.72899999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2">
-        <v>43530</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2">
-        <v>43530</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="2">
-        <v>43530</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2">
-        <v>43530</v>
-      </c>
-      <c r="D8" s="2">
-        <v>43585</v>
-      </c>
-      <c r="E8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8">
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8">
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="2">
-        <v>43530</v>
-      </c>
-      <c r="D9" s="2">
-        <v>43585</v>
-      </c>
-      <c r="E9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9">
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9">
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="2">
-        <v>43530</v>
-      </c>
-      <c r="D10" s="2">
-        <v>43585</v>
-      </c>
-      <c r="E10" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10">
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10">
         <v>1.113</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="2">
-        <v>43531</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="2">
-        <v>43531</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2">
-        <v>43531</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="2">
-        <v>43531</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="2">
-        <v>43531</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="2">
-        <v>43531</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="2">
-        <v>43535</v>
-      </c>
-      <c r="D17" s="2">
-        <v>43586</v>
-      </c>
-      <c r="E17" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17">
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17">
         <v>0.91300000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="2">
-        <v>43535</v>
-      </c>
-      <c r="D18" s="2">
-        <v>43586</v>
-      </c>
-      <c r="E18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18">
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18">
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="2">
-        <v>43535</v>
-      </c>
-      <c r="D19" s="2">
-        <v>43586</v>
-      </c>
-      <c r="E19" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19">
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19">
         <v>1.6379999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="2">
-        <v>43535</v>
-      </c>
-      <c r="D20" s="2">
-        <v>43586</v>
-      </c>
-      <c r="E20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20">
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20">
         <v>1.4610000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="2">
-        <v>43535</v>
-      </c>
-      <c r="D21" s="2">
-        <v>43586</v>
-      </c>
-      <c r="E21" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21">
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21">
         <v>1.4119999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="2">
-        <v>43535</v>
-      </c>
-      <c r="D22" s="2">
-        <v>43586</v>
-      </c>
-      <c r="E22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22">
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22">
         <v>1.018</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>39</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="2">
-        <v>43535</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>40</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="2">
-        <v>43535</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="2">
-        <v>43535</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="2">
-        <v>43538</v>
-      </c>
-      <c r="D26" s="2">
-        <v>43585</v>
-      </c>
-      <c r="E26" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26">
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26">
         <v>0.59400000000000008</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="2">
-        <v>43538</v>
-      </c>
-      <c r="D27" s="2">
-        <v>43585</v>
-      </c>
-      <c r="E27" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" t="s">
-        <v>106</v>
-      </c>
-      <c r="G27">
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27">
         <v>0.80399999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>44</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="2">
-        <v>43538</v>
-      </c>
-      <c r="D28" s="2">
-        <v>43585</v>
-      </c>
-      <c r="E28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28">
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28">
         <v>0.99</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>45</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="2">
-        <v>43537</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="2">
-        <v>43537</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>47</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="2">
-        <v>43537</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>51</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="2">
-        <v>43537</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="2">
-        <v>43537</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s">
-        <v>98</v>
-      </c>
-      <c r="F33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>53</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="2">
-        <v>43537</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>57</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="2">
-        <v>43537</v>
-      </c>
-      <c r="D35" s="2">
-        <v>43593</v>
-      </c>
-      <c r="E35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F35" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35">
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35">
         <v>1.0029999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>58</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="2">
-        <v>43537</v>
-      </c>
-      <c r="D36" s="2">
-        <v>43593</v>
-      </c>
-      <c r="E36" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36" t="s">
-        <v>106</v>
-      </c>
-      <c r="G36">
+      <c r="C36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36">
         <v>0.87</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>59</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="2">
-        <v>43537</v>
-      </c>
-      <c r="D37" s="2">
-        <v>43593</v>
-      </c>
-      <c r="E37" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" t="s">
-        <v>106</v>
-      </c>
-      <c r="G37">
+      <c r="C37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37">
         <v>1.5980000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>60</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="2">
-        <v>43536</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>61</v>
       </c>
-      <c r="B39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2">
-        <v>43536</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s">
-        <v>98</v>
-      </c>
-      <c r="F39" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>62</v>
       </c>
-      <c r="B40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="2">
-        <v>43536</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>63</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="2">
-        <v>43536</v>
-      </c>
-      <c r="D41" s="2">
-        <v>43587</v>
-      </c>
-      <c r="E41" t="s">
-        <v>98</v>
-      </c>
-      <c r="F41" t="s">
-        <v>106</v>
-      </c>
-      <c r="G41">
+      <c r="C42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42">
         <v>0.93500000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>64</v>
       </c>
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2">
-        <v>43536</v>
-      </c>
-      <c r="D42" s="2">
-        <v>43587</v>
-      </c>
-      <c r="E42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F42" t="s">
-        <v>106</v>
-      </c>
-      <c r="G42">
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43">
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>65</v>
       </c>
-      <c r="B43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="2">
-        <v>43536</v>
-      </c>
-      <c r="D43" s="2">
-        <v>43587</v>
-      </c>
-      <c r="E43" t="s">
-        <v>98</v>
-      </c>
-      <c r="F43" t="s">
-        <v>106</v>
-      </c>
-      <c r="G43">
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44">
         <v>1.137</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>69</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="2">
-        <v>43536</v>
-      </c>
-      <c r="D44" s="2">
-        <v>43587</v>
-      </c>
-      <c r="E44" t="s">
-        <v>98</v>
-      </c>
-      <c r="F44" t="s">
-        <v>106</v>
-      </c>
-      <c r="G44">
+      <c r="C45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45">
         <v>1.2609999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>70</v>
       </c>
-      <c r="B45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="2">
-        <v>43536</v>
-      </c>
-      <c r="D45" s="2">
-        <v>43587</v>
-      </c>
-      <c r="E45" t="s">
-        <v>98</v>
-      </c>
-      <c r="F45" t="s">
-        <v>106</v>
-      </c>
-      <c r="G45">
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46">
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>71</v>
       </c>
-      <c r="B46" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="2">
-        <v>43536</v>
-      </c>
-      <c r="D46" s="2">
-        <v>43587</v>
-      </c>
-      <c r="E46" t="s">
-        <v>98</v>
-      </c>
-      <c r="F46" t="s">
-        <v>106</v>
-      </c>
-      <c r="G46">
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47">
         <v>0.621</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>75</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="2">
-        <v>43535</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s">
-        <v>98</v>
-      </c>
-      <c r="F47" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>76</v>
       </c>
-      <c r="B48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="2">
-        <v>43535</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s">
-        <v>98</v>
-      </c>
-      <c r="F48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>77</v>
       </c>
-      <c r="B49" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" s="2">
-        <v>43535</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s">
-        <v>98</v>
-      </c>
-      <c r="F49" t="s">
-        <v>106</v>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50">
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>
@@ -1720,7 +1558,7 @@
   <dimension ref="A1:T73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,10 +1641,10 @@
         <v>94</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -2008,6 +1846,12 @@
       <c r="E8" s="2">
         <v>43530</v>
       </c>
+      <c r="F8" s="2">
+        <v>43608</v>
+      </c>
+      <c r="G8" s="2">
+        <v>43608</v>
+      </c>
       <c r="M8" s="2">
         <v>43530</v>
       </c>
@@ -2040,6 +1884,12 @@
       <c r="E9" s="2">
         <v>43530</v>
       </c>
+      <c r="F9" s="2">
+        <v>43608</v>
+      </c>
+      <c r="G9" s="2">
+        <v>43608</v>
+      </c>
       <c r="M9" s="2">
         <v>43530</v>
       </c>
@@ -2072,6 +1922,12 @@
       <c r="E10" s="2">
         <v>43530</v>
       </c>
+      <c r="F10" s="2">
+        <v>43608</v>
+      </c>
+      <c r="G10" s="2">
+        <v>43608</v>
+      </c>
       <c r="M10" s="2">
         <v>43530</v>
       </c>
@@ -2287,6 +2143,12 @@
       <c r="E17" s="2">
         <v>43531</v>
       </c>
+      <c r="F17" s="2">
+        <v>43608</v>
+      </c>
+      <c r="G17" s="2">
+        <v>43608</v>
+      </c>
       <c r="M17" s="2">
         <v>43531</v>
       </c>
@@ -2319,6 +2181,12 @@
       <c r="E18" s="2">
         <v>43531</v>
       </c>
+      <c r="F18" s="2">
+        <v>43608</v>
+      </c>
+      <c r="G18" s="2">
+        <v>43608</v>
+      </c>
       <c r="M18" s="2">
         <v>43531</v>
       </c>
@@ -2350,6 +2218,12 @@
       </c>
       <c r="E19" s="2">
         <v>43531</v>
+      </c>
+      <c r="F19" s="2">
+        <v>43608</v>
+      </c>
+      <c r="G19" s="2">
+        <v>43608</v>
       </c>
       <c r="M19" s="2">
         <v>43531</v>
@@ -2383,6 +2257,12 @@
       <c r="E20" s="2">
         <v>43531</v>
       </c>
+      <c r="F20" s="2">
+        <v>43586</v>
+      </c>
+      <c r="G20" s="2">
+        <v>43608</v>
+      </c>
       <c r="M20" s="2">
         <v>43531</v>
       </c>
@@ -2415,6 +2295,12 @@
       <c r="E21" s="2">
         <v>43531</v>
       </c>
+      <c r="F21" s="2">
+        <v>43586</v>
+      </c>
+      <c r="G21" s="2">
+        <v>43608</v>
+      </c>
       <c r="M21" s="2">
         <v>43531</v>
       </c>
@@ -2447,6 +2333,12 @@
       <c r="E22" s="2">
         <v>43531</v>
       </c>
+      <c r="F22" s="2">
+        <v>43586</v>
+      </c>
+      <c r="G22" s="2">
+        <v>43608</v>
+      </c>
       <c r="M22" s="2">
         <v>43531</v>
       </c>
@@ -2845,6 +2737,12 @@
       <c r="E35" s="2">
         <v>43535</v>
       </c>
+      <c r="F35" s="2">
+        <v>43609</v>
+      </c>
+      <c r="G35" s="2">
+        <v>43609</v>
+      </c>
       <c r="M35" s="2">
         <v>43535</v>
       </c>
@@ -2877,6 +2775,12 @@
       <c r="E36" s="2">
         <v>43535</v>
       </c>
+      <c r="F36" s="2">
+        <v>43609</v>
+      </c>
+      <c r="G36" s="2">
+        <v>43609</v>
+      </c>
       <c r="M36" s="2">
         <v>43535</v>
       </c>
@@ -2909,6 +2813,12 @@
       <c r="E37" s="2">
         <v>43535</v>
       </c>
+      <c r="F37" s="2">
+        <v>43609</v>
+      </c>
+      <c r="G37" s="2">
+        <v>43609</v>
+      </c>
       <c r="M37" s="2">
         <v>43535</v>
       </c>
@@ -3046,6 +2956,12 @@
       <c r="E41" s="2">
         <v>43537</v>
       </c>
+      <c r="F41" s="2">
+        <v>43609</v>
+      </c>
+      <c r="G41" s="2">
+        <v>43609</v>
+      </c>
       <c r="M41" s="2">
         <v>43537</v>
       </c>
@@ -3078,6 +2994,12 @@
       <c r="E42" s="2">
         <v>43537</v>
       </c>
+      <c r="F42" s="2">
+        <v>43609</v>
+      </c>
+      <c r="G42" s="2">
+        <v>43609</v>
+      </c>
       <c r="M42" s="2">
         <v>43537</v>
       </c>
@@ -3110,6 +3032,12 @@
       <c r="E43" s="2">
         <v>43537</v>
       </c>
+      <c r="F43" s="2">
+        <v>43609</v>
+      </c>
+      <c r="G43" s="2">
+        <v>43609</v>
+      </c>
       <c r="M43" s="2">
         <v>43537</v>
       </c>
@@ -3220,6 +3148,12 @@
       <c r="E47" s="2">
         <v>43537</v>
       </c>
+      <c r="F47" s="2">
+        <v>43609</v>
+      </c>
+      <c r="G47" s="2">
+        <v>43609</v>
+      </c>
       <c r="M47" s="2">
         <v>43537</v>
       </c>
@@ -3252,6 +3186,12 @@
       <c r="E48" s="2">
         <v>43537</v>
       </c>
+      <c r="F48" s="2">
+        <v>43609</v>
+      </c>
+      <c r="G48" s="2">
+        <v>43609</v>
+      </c>
       <c r="M48" s="2">
         <v>43537</v>
       </c>
@@ -3284,6 +3224,12 @@
       <c r="E49" s="2">
         <v>43537</v>
       </c>
+      <c r="F49" s="2">
+        <v>43609</v>
+      </c>
+      <c r="G49" s="2">
+        <v>43609</v>
+      </c>
       <c r="M49" s="2">
         <v>43537</v>
       </c>
@@ -3499,6 +3445,12 @@
       <c r="E56" s="2">
         <v>43536</v>
       </c>
+      <c r="F56" s="2">
+        <v>43609</v>
+      </c>
+      <c r="G56" s="2">
+        <v>43609</v>
+      </c>
       <c r="M56" s="2">
         <v>43536</v>
       </c>
@@ -3531,6 +3483,12 @@
       <c r="E57" s="2">
         <v>43536</v>
       </c>
+      <c r="F57" s="2">
+        <v>43609</v>
+      </c>
+      <c r="G57" s="2">
+        <v>43609</v>
+      </c>
       <c r="M57" s="2">
         <v>43536</v>
       </c>
@@ -3563,6 +3521,12 @@
       <c r="E58" s="2">
         <v>43536</v>
       </c>
+      <c r="F58" s="2">
+        <v>43609</v>
+      </c>
+      <c r="G58" s="2">
+        <v>43609</v>
+      </c>
       <c r="M58" s="2">
         <v>43536</v>
       </c>
@@ -3961,6 +3925,12 @@
       <c r="E71" s="2">
         <v>43535</v>
       </c>
+      <c r="F71" s="2">
+        <v>43609</v>
+      </c>
+      <c r="G71" s="2">
+        <v>43609</v>
+      </c>
       <c r="M71" s="2">
         <v>43535</v>
       </c>
@@ -3993,6 +3963,12 @@
       <c r="E72" s="2">
         <v>43535</v>
       </c>
+      <c r="F72" s="2">
+        <v>43609</v>
+      </c>
+      <c r="G72" s="2">
+        <v>43609</v>
+      </c>
       <c r="M72" s="2">
         <v>43535</v>
       </c>
@@ -4024,6 +4000,12 @@
       </c>
       <c r="E73" s="2">
         <v>43535</v>
+      </c>
+      <c r="F73" s="2">
+        <v>43609</v>
+      </c>
+      <c r="G73" s="2">
+        <v>43609</v>
       </c>
       <c r="M73" s="2">
         <v>43535</v>
